--- a/data_excel/144.xlsx
+++ b/data_excel/144.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>在</t>
   </si>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +544,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -740,7 +744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -751,15 +755,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>41</v>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
